--- a/branches/master/StructureDefinition-plandefinition-s37.xlsx
+++ b/branches/master/StructureDefinition-plandefinition-s37.xlsx
@@ -36,13 +36,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>VisitPlanPlanDefinitionS37</t>
+    <t>PlanDefinitionS37</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>PlanDefinitionS37</t>
+    <t>Profile : PlanDefinitionS37</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T01:13:32+00:00</t>
+    <t>2022-05-23T10:52:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -454,7 +454,7 @@
 </t>
   </si>
   <si>
-    <t>Parent Reference</t>
+    <t>Extension : Parent Reference</t>
   </si>
   <si>
     <t>extension to show reference back to a parent instance</t>
@@ -467,7 +467,7 @@
 </t>
   </si>
   <si>
-    <t>ProtocalVersion</t>
+    <t>Extension : Protocal Version</t>
   </si>
   <si>
     <t>identifies the specific protocal version</t>
@@ -480,7 +480,7 @@
 </t>
   </si>
   <si>
-    <t>Version Number</t>
+    <t>Extension : Version Number</t>
   </si>
   <si>
     <t>version number</t>
@@ -493,7 +493,7 @@
 </t>
   </si>
   <si>
-    <t>Day0</t>
+    <t>Extension : Day0</t>
   </si>
   <si>
     <t>collection which diferenciates specific date start of a patients start date.</t>
@@ -1292,7 +1292,7 @@
 </t>
   </si>
   <si>
-    <t>form Config</t>
+    <t>Extension : Form Config</t>
   </si>
   <si>
     <t>plan definition action extention for form configurations</t>

--- a/branches/master/StructureDefinition-plandefinition-s37.xlsx
+++ b/branches/master/StructureDefinition-plandefinition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T10:52:07+00:00</t>
+    <t>2022-05-23T10:54:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-plandefinition-s37.xlsx
+++ b/branches/master/StructureDefinition-plandefinition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T10:54:56+00:00</t>
+    <t>2022-05-23T11:06:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-plandefinition-s37.xlsx
+++ b/branches/master/StructureDefinition-plandefinition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T11:06:18+00:00</t>
+    <t>2022-05-23T11:08:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-plandefinition-s37.xlsx
+++ b/branches/master/StructureDefinition-plandefinition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T11:08:31+00:00</t>
+    <t>2022-05-23T11:30:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-plandefinition-s37.xlsx
+++ b/branches/master/StructureDefinition-plandefinition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T11:30:07+00:00</t>
+    <t>2022-05-23T11:46:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -493,7 +493,7 @@
 </t>
   </si>
   <si>
-    <t>Extension : Day0</t>
+    <t>Extension : Day Zero</t>
   </si>
   <si>
     <t>collection which diferenciates specific date start of a patients start date.</t>

--- a/branches/master/StructureDefinition-plandefinition-s37.xlsx
+++ b/branches/master/StructureDefinition-plandefinition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T11:46:37+00:00</t>
+    <t>2022-05-23T12:36:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-plandefinition-s37.xlsx
+++ b/branches/master/StructureDefinition-plandefinition-s37.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5788" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5858" uniqueCount="632">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-23T12:36:41+00:00</t>
+    <t>2022-05-24T14:28:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1296,6 +1296,19 @@
   </si>
   <si>
     <t>plan definition action extention for form configurations</t>
+  </si>
+  <si>
+    <t>ongoingForm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://science37.github.io/FHIR-FSH-Implementation-Guide/StructureDefinition/ongoing-form}
+</t>
+  </si>
+  <si>
+    <t>Ongoing Form</t>
+  </si>
+  <si>
+    <t>List of ongoing Forms</t>
   </si>
   <si>
     <t>PlanDefinition.action.modifierExtension</t>
@@ -2246,7 +2259,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM166"/>
+  <dimension ref="A1:AM168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -9493,43 +9506,41 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>350</v>
+        <v>74</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>127</v>
+        <v>414</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>351</v>
+        <v>415</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>74</v>
       </c>
@@ -9577,7 +9588,7 @@
         <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -9586,7 +9597,7 @@
         <v>76</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>133</v>
@@ -9601,44 +9612,48 @@
         <v>74</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>125</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>415</v>
+        <v>351</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>74</v>
       </c>
@@ -9686,19 +9701,19 @@
         <v>74</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>414</v>
+        <v>353</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>74</v>
@@ -9710,12 +9725,12 @@
         <v>74</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9741,10 +9756,10 @@
         <v>84</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9795,7 +9810,7 @@
         <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -9810,7 +9825,7 @@
         <v>94</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>74</v>
@@ -9824,7 +9839,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9850,10 +9865,10 @@
         <v>84</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9904,7 +9919,7 @@
         <v>74</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -9919,7 +9934,7 @@
         <v>94</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>254</v>
+        <v>193</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>74</v>
@@ -9933,7 +9948,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9959,10 +9974,10 @@
         <v>84</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10013,7 +10028,7 @@
         <v>74</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
@@ -10042,7 +10057,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10065,13 +10080,13 @@
         <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10098,13 +10113,13 @@
         <v>74</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>429</v>
+        <v>74</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>430</v>
+        <v>74</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>74</v>
@@ -10122,7 +10137,7 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -10137,7 +10152,7 @@
         <v>94</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>74</v>
+        <v>254</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>74</v>
@@ -10151,7 +10166,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10162,7 +10177,7 @@
         <v>75</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>74</v>
@@ -10174,13 +10189,13 @@
         <v>74</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>198</v>
+        <v>102</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10207,13 +10222,13 @@
         <v>74</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>74</v>
+        <v>433</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>74</v>
+        <v>434</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>74</v>
@@ -10231,13 +10246,13 @@
         <v>74</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>74</v>
@@ -10260,7 +10275,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10286,14 +10301,12 @@
         <v>198</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M73" t="s" s="2">
         <v>437</v>
       </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>74</v>
@@ -10342,7 +10355,7 @@
         <v>74</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
@@ -10394,7 +10407,7 @@
         <v>74</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>326</v>
+        <v>198</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>439</v>
@@ -10402,7 +10415,9 @@
       <c r="L74" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="M74" s="2"/>
+      <c r="M74" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>74</v>
@@ -10480,7 +10495,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10503,7 +10518,7 @@
         <v>74</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>442</v>
+        <v>326</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>443</v>
@@ -10560,7 +10575,7 @@
         <v>74</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
@@ -10600,7 +10615,7 @@
         <v>75</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>74</v>
@@ -10612,26 +10627,20 @@
         <v>74</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>221</v>
+        <v>446</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M76" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="N76" t="s" s="2">
-        <v>449</v>
-      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P76" t="s" s="2">
-        <v>224</v>
-      </c>
+      <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
         <v>74</v>
       </c>
@@ -10651,13 +10660,13 @@
         <v>74</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>225</v>
+        <v>74</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>226</v>
+        <v>74</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>74</v>
@@ -10681,7 +10690,7 @@
         <v>75</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>74</v>
@@ -10690,7 +10699,7 @@
         <v>94</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>227</v>
+        <v>74</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>74</v>
@@ -10704,7 +10713,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10715,7 +10724,7 @@
         <v>75</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>74</v>
@@ -10727,20 +10736,26 @@
         <v>74</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="Q77" t="s" s="2">
         <v>74</v>
       </c>
@@ -10760,13 +10775,13 @@
         <v>74</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>74</v>
+        <v>201</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>74</v>
+        <v>225</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>74</v>
+        <v>226</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>74</v>
@@ -10784,13 +10799,13 @@
         <v>74</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>74</v>
@@ -10799,7 +10814,7 @@
         <v>94</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>74</v>
+        <v>227</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>74</v>
@@ -10836,17 +10851,15 @@
         <v>74</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>336</v>
+        <v>455</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M78" t="s" s="2">
         <v>457</v>
       </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>74</v>
@@ -10935,7 +10948,7 @@
         <v>75</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>74</v>
@@ -10947,15 +10960,17 @@
         <v>74</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>84</v>
+        <v>336</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>341</v>
+        <v>459</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>74</v>
@@ -11004,19 +11019,19 @@
         <v>74</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>343</v>
+        <v>458</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>74</v>
@@ -11028,23 +11043,23 @@
         <v>74</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>344</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>74</v>
@@ -11056,17 +11071,15 @@
         <v>74</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>74</v>
@@ -11115,19 +11128,19 @@
         <v>74</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>74</v>
@@ -11144,11 +11157,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>350</v>
+        <v>156</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11161,26 +11174,24 @@
         <v>74</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J81" t="s" s="2">
         <v>127</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="N81" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>74</v>
       </c>
@@ -11228,7 +11239,7 @@
         <v>74</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
@@ -11252,46 +11263,48 @@
         <v>74</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>125</v>
+        <v>344</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>462</v>
+        <v>351</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>463</v>
+        <v>352</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>74</v>
       </c>
@@ -11315,13 +11328,13 @@
         <v>74</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>465</v>
+        <v>74</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>466</v>
+        <v>74</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>74</v>
@@ -11339,19 +11352,19 @@
         <v>74</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>461</v>
+        <v>353</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>74</v>
@@ -11363,12 +11376,12 @@
         <v>74</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11376,7 +11389,7 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>82</v>
@@ -11391,16 +11404,16 @@
         <v>74</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11426,13 +11439,13 @@
         <v>74</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>74</v>
+        <v>469</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>74</v>
+        <v>470</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>74</v>
@@ -11450,10 +11463,10 @@
         <v>74</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>82</v>
@@ -11479,7 +11492,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11490,7 +11503,7 @@
         <v>75</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>74</v>
@@ -11502,15 +11515,17 @@
         <v>74</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="K84" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="K84" t="s" s="2">
+      <c r="L84" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>74</v>
@@ -11559,13 +11574,13 @@
         <v>74</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>74</v>
@@ -11611,13 +11626,13 @@
         <v>74</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11697,7 +11712,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11720,17 +11735,15 @@
         <v>74</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>336</v>
+        <v>477</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M86" t="s" s="2">
         <v>482</v>
       </c>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>74</v>
@@ -11779,7 +11792,7 @@
         <v>74</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>75</v>
@@ -11819,7 +11832,7 @@
         <v>75</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>74</v>
@@ -11831,15 +11844,17 @@
         <v>74</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>84</v>
+        <v>336</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>341</v>
+        <v>484</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M87" s="2"/>
+        <v>485</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>74</v>
@@ -11888,19 +11903,19 @@
         <v>74</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>343</v>
+        <v>483</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>74</v>
@@ -11912,23 +11927,23 @@
         <v>74</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>344</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>74</v>
@@ -11940,17 +11955,15 @@
         <v>74</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>74</v>
@@ -11999,19 +12012,19 @@
         <v>74</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>74</v>
@@ -12028,11 +12041,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>350</v>
+        <v>156</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -12045,26 +12058,24 @@
         <v>74</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J89" t="s" s="2">
         <v>127</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="N89" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>74</v>
       </c>
@@ -12112,7 +12123,7 @@
         <v>74</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>75</v>
@@ -12136,44 +12147,48 @@
         <v>74</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>125</v>
+        <v>344</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>442</v>
+        <v>127</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>487</v>
+        <v>351</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O90" t="s" s="2">
         <v>74</v>
       </c>
@@ -12221,19 +12236,19 @@
         <v>74</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>486</v>
+        <v>353</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>74</v>
@@ -12245,12 +12260,12 @@
         <v>74</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12273,13 +12288,13 @@
         <v>74</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>102</v>
+        <v>446</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12306,13 +12321,13 @@
         <v>74</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>492</v>
+        <v>74</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>493</v>
+        <v>74</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>74</v>
@@ -12330,7 +12345,7 @@
         <v>74</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>82</v>
@@ -12359,7 +12374,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12367,7 +12382,7 @@
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F92" t="s" s="2">
         <v>82</v>
@@ -12382,13 +12397,13 @@
         <v>74</v>
       </c>
       <c r="J92" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12415,13 +12430,13 @@
         <v>74</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>74</v>
+        <v>496</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>74</v>
+        <v>497</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>74</v>
@@ -12439,10 +12454,10 @@
         <v>74</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>82</v>
@@ -12588,7 +12603,7 @@
         <v>75</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>74</v>
@@ -12600,13 +12615,13 @@
         <v>74</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>336</v>
+        <v>503</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -12663,7 +12678,7 @@
         <v>75</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>74</v>
@@ -12686,7 +12701,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12697,7 +12712,7 @@
         <v>75</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>74</v>
@@ -12709,13 +12724,13 @@
         <v>74</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>84</v>
+        <v>336</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>341</v>
+        <v>507</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>342</v>
+        <v>508</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -12766,19 +12781,19 @@
         <v>74</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>343</v>
+        <v>506</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>74</v>
@@ -12790,23 +12805,23 @@
         <v>74</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>344</v>
+        <v>74</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>74</v>
@@ -12818,17 +12833,15 @@
         <v>74</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>74</v>
@@ -12877,19 +12890,19 @@
         <v>74</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>74</v>
@@ -12906,11 +12919,11 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>350</v>
+        <v>156</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -12923,26 +12936,24 @@
         <v>74</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J97" t="s" s="2">
         <v>127</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="M97" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="N97" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>74</v>
       </c>
@@ -12990,7 +13001,7 @@
         <v>74</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>75</v>
@@ -13014,44 +13025,48 @@
         <v>74</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>125</v>
+        <v>344</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>509</v>
+        <v>351</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O98" t="s" s="2">
         <v>74</v>
       </c>
@@ -13075,13 +13090,13 @@
         <v>74</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>511</v>
+        <v>74</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>512</v>
+        <v>74</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>74</v>
@@ -13099,19 +13114,19 @@
         <v>74</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>508</v>
+        <v>353</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>74</v>
@@ -13123,12 +13138,12 @@
         <v>74</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13136,7 +13151,7 @@
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F99" t="s" s="2">
         <v>82</v>
@@ -13151,13 +13166,13 @@
         <v>74</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>198</v>
+        <v>102</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -13184,14 +13199,14 @@
         <v>74</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>307</v>
+        <v>208</v>
       </c>
       <c r="X99" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="Y99" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="Y99" t="s" s="2">
-        <v>517</v>
-      </c>
       <c r="Z99" t="s" s="2">
         <v>74</v>
       </c>
@@ -13208,10 +13223,10 @@
         <v>74</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>82</v>
@@ -13237,7 +13252,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13263,10 +13278,10 @@
         <v>198</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13293,14 +13308,14 @@
         <v>74</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>201</v>
+        <v>307</v>
       </c>
       <c r="X100" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="Y100" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="Y100" t="s" s="2">
-        <v>522</v>
-      </c>
       <c r="Z100" t="s" s="2">
         <v>74</v>
       </c>
@@ -13317,7 +13332,7 @@
         <v>74</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>75</v>
@@ -13346,7 +13361,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13369,13 +13384,13 @@
         <v>74</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>102</v>
+        <v>198</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -13402,14 +13417,14 @@
         <v>74</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="X101" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="Y101" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="Y101" t="s" s="2">
-        <v>527</v>
-      </c>
       <c r="Z101" t="s" s="2">
         <v>74</v>
       </c>
@@ -13426,7 +13441,7 @@
         <v>74</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>75</v>
@@ -13455,7 +13470,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13481,10 +13496,10 @@
         <v>102</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -13514,11 +13529,11 @@
         <v>208</v>
       </c>
       <c r="X102" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="Y102" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="Y102" t="s" s="2">
-        <v>532</v>
-      </c>
       <c r="Z102" t="s" s="2">
         <v>74</v>
       </c>
@@ -13535,7 +13550,7 @@
         <v>74</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>75</v>
@@ -13564,7 +13579,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13590,10 +13605,10 @@
         <v>102</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -13623,11 +13638,11 @@
         <v>208</v>
       </c>
       <c r="X103" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="Y103" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="Y103" t="s" s="2">
-        <v>537</v>
-      </c>
       <c r="Z103" t="s" s="2">
         <v>74</v>
       </c>
@@ -13644,7 +13659,7 @@
         <v>74</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>75</v>
@@ -13673,7 +13688,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13699,10 +13714,10 @@
         <v>102</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -13732,11 +13747,11 @@
         <v>208</v>
       </c>
       <c r="X104" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="Y104" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="Y104" t="s" s="2">
-        <v>542</v>
-      </c>
       <c r="Z104" t="s" s="2">
         <v>74</v>
       </c>
@@ -13753,7 +13768,7 @@
         <v>74</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>75</v>
@@ -13782,7 +13797,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13808,10 +13823,10 @@
         <v>102</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -13841,11 +13856,11 @@
         <v>208</v>
       </c>
       <c r="X105" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="Y105" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="Y105" t="s" s="2">
-        <v>547</v>
-      </c>
       <c r="Z105" t="s" s="2">
         <v>74</v>
       </c>
@@ -13862,7 +13877,7 @@
         <v>74</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>75</v>
@@ -13891,7 +13906,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13914,17 +13929,15 @@
         <v>74</v>
       </c>
       <c r="J106" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="K106" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>552</v>
-      </c>
+      <c r="M106" s="2"/>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>74</v>
@@ -13949,13 +13962,13 @@
         <v>74</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>74</v>
+        <v>550</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>74</v>
+        <v>551</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>74</v>
@@ -13973,7 +13986,7 @@
         <v>74</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>75</v>
@@ -13988,7 +14001,7 @@
         <v>94</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>553</v>
+        <v>74</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>74</v>
@@ -14002,7 +14015,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14025,16 +14038,16 @@
         <v>74</v>
       </c>
       <c r="J107" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="K107" t="s" s="2">
+      <c r="M107" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -14084,7 +14097,7 @@
         <v>74</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>75</v>
@@ -14099,7 +14112,7 @@
         <v>94</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>74</v>
+        <v>557</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>74</v>
@@ -14113,7 +14126,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14124,7 +14137,7 @@
         <v>75</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>74</v>
@@ -14136,7 +14149,7 @@
         <v>74</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>336</v>
+        <v>559</v>
       </c>
       <c r="K108" t="s" s="2">
         <v>560</v>
@@ -14195,13 +14208,13 @@
         <v>74</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>74</v>
@@ -14235,7 +14248,7 @@
         <v>75</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>74</v>
@@ -14247,15 +14260,17 @@
         <v>74</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>84</v>
+        <v>336</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>341</v>
+        <v>564</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M109" s="2"/>
+        <v>565</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>566</v>
+      </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>74</v>
@@ -14304,19 +14319,19 @@
         <v>74</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>343</v>
+        <v>563</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>74</v>
@@ -14328,23 +14343,23 @@
         <v>74</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>344</v>
+        <v>74</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>74</v>
@@ -14356,17 +14371,15 @@
         <v>74</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="M110" s="2"/>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
         <v>74</v>
@@ -14415,19 +14428,19 @@
         <v>74</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>74</v>
@@ -14444,11 +14457,11 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>350</v>
+        <v>156</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -14461,26 +14474,24 @@
         <v>74</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J111" t="s" s="2">
         <v>127</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="M111" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="N111" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>74</v>
       </c>
@@ -14528,7 +14539,7 @@
         <v>74</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>75</v>
@@ -14552,46 +14563,48 @@
         <v>74</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>125</v>
+        <v>344</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>567</v>
+        <v>351</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>568</v>
+        <v>352</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N112" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O112" t="s" s="2">
         <v>74</v>
       </c>
@@ -14639,19 +14652,19 @@
         <v>74</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>566</v>
+        <v>353</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>74</v>
@@ -14663,7 +14676,7 @@
         <v>74</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113">
@@ -14691,7 +14704,7 @@
         <v>74</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>468</v>
+        <v>84</v>
       </c>
       <c r="K113" t="s" s="2">
         <v>571</v>
@@ -14700,7 +14713,7 @@
         <v>572</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>471</v>
+        <v>573</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -14779,7 +14792,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14790,7 +14803,7 @@
         <v>75</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>74</v>
@@ -14802,15 +14815,17 @@
         <v>74</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>336</v>
+        <v>472</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="M114" s="2"/>
+        <v>576</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
         <v>74</v>
@@ -14859,13 +14874,13 @@
         <v>74</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>74</v>
@@ -14874,7 +14889,7 @@
         <v>94</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>576</v>
+        <v>74</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>74</v>
@@ -14899,7 +14914,7 @@
         <v>75</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>74</v>
@@ -14911,13 +14926,13 @@
         <v>74</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>84</v>
+        <v>336</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>341</v>
+        <v>578</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>342</v>
+        <v>579</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -14968,22 +14983,22 @@
         <v>74</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>343</v>
+        <v>577</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>74</v>
+        <v>580</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>74</v>
@@ -14992,12 +15007,12 @@
         <v>74</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>344</v>
+        <v>74</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15008,7 +15023,7 @@
         <v>75</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>74</v>
@@ -15020,13 +15035,13 @@
         <v>74</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>128</v>
+        <v>341</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>129</v>
+        <v>342</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -15065,29 +15080,31 @@
         <v>74</v>
       </c>
       <c r="AA116" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AB116" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC116" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD116" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>74</v>
@@ -15099,16 +15116,14 @@
         <v>74</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>74</v>
+        <v>344</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
         <v>74</v>
       </c>
@@ -15117,7 +15132,7 @@
         <v>75</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>74</v>
@@ -15129,13 +15144,13 @@
         <v>74</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>410</v>
+        <v>127</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>411</v>
+        <v>128</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>412</v>
+        <v>129</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -15174,16 +15189,14 @@
         <v>74</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="AB117" s="2"/>
       <c r="AC117" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD117" t="s" s="2">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="AE117" t="s" s="2">
         <v>348</v>
@@ -15195,7 +15208,7 @@
         <v>76</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>133</v>
@@ -15215,43 +15228,41 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="B118" s="2"/>
+        <v>582</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="C118" t="s" s="2">
-        <v>350</v>
+        <v>74</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>127</v>
+        <v>410</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>351</v>
+        <v>411</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
         <v>74</v>
       </c>
@@ -15299,7 +15310,7 @@
         <v>74</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>75</v>
@@ -15308,7 +15319,7 @@
         <v>76</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>133</v>
@@ -15323,14 +15334,16 @@
         <v>74</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>125</v>
+        <v>74</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="B119" s="2"/>
+        <v>582</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="C119" t="s" s="2">
         <v>74</v>
       </c>
@@ -15351,7 +15364,7 @@
         <v>74</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>84</v>
+        <v>414</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>415</v>
@@ -15408,19 +15421,19 @@
         <v>74</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>414</v>
+        <v>348</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>74</v>
@@ -15437,39 +15450,43 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H120" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>418</v>
+        <v>351</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M120" s="2"/>
-      <c r="N120" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O120" t="s" s="2">
         <v>74</v>
       </c>
@@ -15517,22 +15534,22 @@
         <v>74</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>417</v>
+        <v>353</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>74</v>
@@ -15541,12 +15558,12 @@
         <v>74</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15572,10 +15589,10 @@
         <v>84</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -15626,7 +15643,7 @@
         <v>74</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>75</v>
@@ -15641,7 +15658,7 @@
         <v>94</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>254</v>
+        <v>74</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>74</v>
@@ -15655,7 +15672,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15681,10 +15698,10 @@
         <v>84</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -15735,7 +15752,7 @@
         <v>74</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>75</v>
@@ -15750,7 +15767,7 @@
         <v>94</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>254</v>
+        <v>193</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>74</v>
@@ -15764,7 +15781,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15787,13 +15804,13 @@
         <v>74</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -15820,13 +15837,13 @@
         <v>74</v>
       </c>
       <c r="W123" t="s" s="2">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c r="X123" t="s" s="2">
-        <v>429</v>
+        <v>74</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>430</v>
+        <v>74</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>74</v>
@@ -15844,7 +15861,7 @@
         <v>74</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>75</v>
@@ -15859,7 +15876,7 @@
         <v>94</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>74</v>
+        <v>254</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>74</v>
@@ -15873,7 +15890,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15884,7 +15901,7 @@
         <v>75</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>74</v>
@@ -15896,13 +15913,13 @@
         <v>74</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>198</v>
+        <v>84</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -15953,13 +15970,13 @@
         <v>74</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>74</v>
@@ -15968,7 +15985,7 @@
         <v>94</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>74</v>
+        <v>254</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>74</v>
@@ -15982,7 +15999,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15993,7 +16010,7 @@
         <v>75</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>74</v>
@@ -16005,17 +16022,15 @@
         <v>74</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>198</v>
+        <v>102</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="M125" s="2"/>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
         <v>74</v>
@@ -16040,13 +16055,13 @@
         <v>74</v>
       </c>
       <c r="W125" t="s" s="2">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>74</v>
+        <v>433</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>74</v>
+        <v>434</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>74</v>
@@ -16064,13 +16079,13 @@
         <v>74</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>74</v>
@@ -16093,7 +16108,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16116,13 +16131,13 @@
         <v>74</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>326</v>
+        <v>198</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -16173,7 +16188,7 @@
         <v>74</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>75</v>
@@ -16202,7 +16217,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16225,15 +16240,17 @@
         <v>74</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>442</v>
+        <v>198</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M127" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
         <v>74</v>
@@ -16282,7 +16299,7 @@
         <v>74</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>75</v>
@@ -16311,7 +16328,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16322,7 +16339,7 @@
         <v>75</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>74</v>
@@ -16334,26 +16351,20 @@
         <v>74</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>221</v>
+        <v>326</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P128" t="s" s="2">
-        <v>224</v>
-      </c>
+      <c r="P128" s="2"/>
       <c r="Q128" t="s" s="2">
         <v>74</v>
       </c>
@@ -16373,13 +16384,13 @@
         <v>74</v>
       </c>
       <c r="W128" t="s" s="2">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>225</v>
+        <v>74</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>226</v>
+        <v>74</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>74</v>
@@ -16397,13 +16408,13 @@
         <v>74</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>74</v>
@@ -16412,7 +16423,7 @@
         <v>94</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>227</v>
+        <v>74</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>74</v>
@@ -16426,7 +16437,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16449,13 +16460,13 @@
         <v>74</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -16506,7 +16517,7 @@
         <v>74</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>75</v>
@@ -16535,7 +16546,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16546,7 +16557,7 @@
         <v>75</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G130" t="s" s="2">
         <v>74</v>
@@ -16558,22 +16569,26 @@
         <v>74</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>336</v>
+        <v>221</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N130" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="O130" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P130" s="2"/>
+      <c r="P130" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="Q130" t="s" s="2">
         <v>74</v>
       </c>
@@ -16593,13 +16608,13 @@
         <v>74</v>
       </c>
       <c r="W130" t="s" s="2">
-        <v>74</v>
+        <v>201</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>74</v>
+        <v>225</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>74</v>
+        <v>226</v>
       </c>
       <c r="Z130" t="s" s="2">
         <v>74</v>
@@ -16617,13 +16632,13 @@
         <v>74</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>74</v>
@@ -16632,7 +16647,7 @@
         <v>94</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>74</v>
+        <v>227</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>74</v>
@@ -16646,7 +16661,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -16657,7 +16672,7 @@
         <v>75</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>74</v>
@@ -16669,13 +16684,13 @@
         <v>74</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>84</v>
+        <v>455</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>341</v>
+        <v>456</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>342</v>
+        <v>457</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -16726,19 +16741,19 @@
         <v>74</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>343</v>
+        <v>454</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>74</v>
@@ -16750,16 +16765,16 @@
         <v>74</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>344</v>
+        <v>74</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -16778,16 +16793,16 @@
         <v>74</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>127</v>
+        <v>336</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>346</v>
+        <v>459</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>347</v>
+        <v>460</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>159</v>
+        <v>461</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
@@ -16837,7 +16852,7 @@
         <v>74</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>348</v>
+        <v>458</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>75</v>
@@ -16849,7 +16864,7 @@
         <v>74</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>74</v>
@@ -16861,48 +16876,44 @@
         <v>74</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>344</v>
+        <v>74</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
-        <v>350</v>
+        <v>74</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F133" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G133" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H133" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I133" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
         <v>74</v>
       </c>
@@ -16950,19 +16961,19 @@
         <v>74</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>74</v>
@@ -16974,23 +16985,23 @@
         <v>74</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>125</v>
+        <v>344</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F134" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>74</v>
@@ -17002,16 +17013,16 @@
         <v>74</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>462</v>
+        <v>346</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>463</v>
+        <v>347</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>464</v>
+        <v>159</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
@@ -17037,13 +17048,13 @@
         <v>74</v>
       </c>
       <c r="W134" t="s" s="2">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>465</v>
+        <v>74</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>466</v>
+        <v>74</v>
       </c>
       <c r="Z134" t="s" s="2">
         <v>74</v>
@@ -17061,19 +17072,19 @@
         <v>74</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>461</v>
+        <v>348</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>74</v>
@@ -17085,46 +17096,48 @@
         <v>74</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>74</v>
+        <v>344</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H135" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>468</v>
+        <v>127</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>469</v>
+        <v>351</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>470</v>
+        <v>352</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N135" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O135" t="s" s="2">
         <v>74</v>
       </c>
@@ -17172,19 +17185,19 @@
         <v>74</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>467</v>
+        <v>353</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>74</v>
@@ -17196,12 +17209,12 @@
         <v>74</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17209,10 +17222,10 @@
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>74</v>
@@ -17224,15 +17237,17 @@
         <v>74</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>473</v>
+        <v>102</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M136" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
         <v>74</v>
@@ -17257,13 +17272,13 @@
         <v>74</v>
       </c>
       <c r="W136" t="s" s="2">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>74</v>
+        <v>469</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>74</v>
+        <v>470</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>74</v>
@@ -17281,13 +17296,13 @@
         <v>74</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>74</v>
@@ -17310,7 +17325,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17321,7 +17336,7 @@
         <v>75</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>74</v>
@@ -17333,15 +17348,17 @@
         <v>74</v>
       </c>
       <c r="J137" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="K137" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="K137" t="s" s="2">
-        <v>477</v>
-      </c>
       <c r="L137" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M137" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="M137" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
         <v>74</v>
@@ -17390,13 +17407,13 @@
         <v>74</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>74</v>
@@ -17419,7 +17436,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17442,17 +17459,15 @@
         <v>74</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>336</v>
+        <v>477</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M138" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="M138" s="2"/>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
         <v>74</v>
@@ -17501,7 +17516,7 @@
         <v>74</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>75</v>
@@ -17530,7 +17545,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17541,7 +17556,7 @@
         <v>75</v>
       </c>
       <c r="F139" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G139" t="s" s="2">
         <v>74</v>
@@ -17553,13 +17568,13 @@
         <v>74</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>84</v>
+        <v>477</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>341</v>
+        <v>481</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>342</v>
+        <v>482</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -17610,19 +17625,19 @@
         <v>74</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>343</v>
+        <v>480</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>74</v>
@@ -17634,16 +17649,16 @@
         <v>74</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>344</v>
+        <v>74</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -17662,16 +17677,16 @@
         <v>74</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>127</v>
+        <v>336</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>346</v>
+        <v>484</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>347</v>
+        <v>485</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>159</v>
+        <v>486</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
@@ -17721,7 +17736,7 @@
         <v>74</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>348</v>
+        <v>483</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>75</v>
@@ -17733,7 +17748,7 @@
         <v>74</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>74</v>
@@ -17745,48 +17760,44 @@
         <v>74</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>344</v>
+        <v>74</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
-        <v>350</v>
+        <v>74</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F141" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G141" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H141" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I141" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="M141" s="2"/>
+      <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
         <v>74</v>
       </c>
@@ -17834,19 +17845,19 @@
         <v>74</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>74</v>
@@ -17858,23 +17869,23 @@
         <v>74</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>125</v>
+        <v>344</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F142" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>74</v>
@@ -17886,15 +17897,17 @@
         <v>74</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>442</v>
+        <v>127</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>487</v>
+        <v>346</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M142" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
         <v>74</v>
@@ -17943,19 +17956,19 @@
         <v>74</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>486</v>
+        <v>348</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>74</v>
@@ -17967,44 +17980,48 @@
         <v>74</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>74</v>
+        <v>344</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H143" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I143" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>490</v>
+        <v>351</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="M143" s="2"/>
-      <c r="N143" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M143" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N143" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O143" t="s" s="2">
         <v>74</v>
       </c>
@@ -18028,13 +18045,13 @@
         <v>74</v>
       </c>
       <c r="W143" t="s" s="2">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>492</v>
+        <v>74</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>493</v>
+        <v>74</v>
       </c>
       <c r="Z143" t="s" s="2">
         <v>74</v>
@@ -18052,19 +18069,19 @@
         <v>74</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>489</v>
+        <v>353</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>74</v>
@@ -18076,12 +18093,12 @@
         <v>74</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18089,7 +18106,7 @@
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F144" t="s" s="2">
         <v>82</v>
@@ -18104,13 +18121,13 @@
         <v>74</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>495</v>
+        <v>446</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -18161,10 +18178,10 @@
         <v>74</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>82</v>
@@ -18190,7 +18207,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18198,7 +18215,7 @@
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F145" t="s" s="2">
         <v>82</v>
@@ -18213,13 +18230,13 @@
         <v>74</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>499</v>
+        <v>102</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -18246,13 +18263,13 @@
         <v>74</v>
       </c>
       <c r="W145" t="s" s="2">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="X145" t="s" s="2">
-        <v>74</v>
+        <v>496</v>
       </c>
       <c r="Y145" t="s" s="2">
-        <v>74</v>
+        <v>497</v>
       </c>
       <c r="Z145" t="s" s="2">
         <v>74</v>
@@ -18270,10 +18287,10 @@
         <v>74</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>82</v>
@@ -18299,7 +18316,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -18310,7 +18327,7 @@
         <v>75</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>74</v>
@@ -18322,13 +18339,13 @@
         <v>74</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>336</v>
+        <v>499</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -18379,13 +18396,13 @@
         <v>74</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>74</v>
@@ -18408,7 +18425,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -18431,13 +18448,13 @@
         <v>74</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>84</v>
+        <v>503</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>341</v>
+        <v>504</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>342</v>
+        <v>505</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -18488,7 +18505,7 @@
         <v>74</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>343</v>
+        <v>502</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>75</v>
@@ -18500,7 +18517,7 @@
         <v>74</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>74</v>
@@ -18512,16 +18529,16 @@
         <v>74</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>344</v>
+        <v>74</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -18540,17 +18557,15 @@
         <v>74</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>127</v>
+        <v>336</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>346</v>
+        <v>507</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="M148" s="2"/>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
         <v>74</v>
@@ -18599,7 +18614,7 @@
         <v>74</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>348</v>
+        <v>506</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>75</v>
@@ -18611,7 +18626,7 @@
         <v>74</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>74</v>
@@ -18623,48 +18638,44 @@
         <v>74</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>344</v>
+        <v>74</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
-        <v>350</v>
+        <v>74</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F149" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H149" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I149" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="M149" s="2"/>
+      <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
         <v>74</v>
       </c>
@@ -18712,19 +18723,19 @@
         <v>74</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>74</v>
@@ -18736,23 +18747,23 @@
         <v>74</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>125</v>
+        <v>344</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F150" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>74</v>
@@ -18764,15 +18775,17 @@
         <v>74</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>509</v>
+        <v>346</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="M150" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
         <v>74</v>
@@ -18797,13 +18810,13 @@
         <v>74</v>
       </c>
       <c r="W150" t="s" s="2">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>511</v>
+        <v>74</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>512</v>
+        <v>74</v>
       </c>
       <c r="Z150" t="s" s="2">
         <v>74</v>
@@ -18821,19 +18834,19 @@
         <v>74</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>508</v>
+        <v>348</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>74</v>
@@ -18845,44 +18858,48 @@
         <v>74</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>74</v>
+        <v>344</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I151" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>198</v>
+        <v>127</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>514</v>
+        <v>351</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M151" s="2"/>
-      <c r="N151" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N151" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O151" t="s" s="2">
         <v>74</v>
       </c>
@@ -18906,13 +18923,13 @@
         <v>74</v>
       </c>
       <c r="W151" t="s" s="2">
-        <v>307</v>
+        <v>74</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>516</v>
+        <v>74</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>517</v>
+        <v>74</v>
       </c>
       <c r="Z151" t="s" s="2">
         <v>74</v>
@@ -18930,19 +18947,19 @@
         <v>74</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>513</v>
+        <v>353</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>74</v>
@@ -18954,12 +18971,12 @@
         <v>74</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -18967,7 +18984,7 @@
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F152" t="s" s="2">
         <v>82</v>
@@ -18982,13 +18999,13 @@
         <v>74</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>198</v>
+        <v>102</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -19015,13 +19032,13 @@
         <v>74</v>
       </c>
       <c r="W152" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>74</v>
@@ -19039,10 +19056,10 @@
         <v>74</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>82</v>
@@ -19068,7 +19085,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -19091,13 +19108,13 @@
         <v>74</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>102</v>
+        <v>198</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -19124,13 +19141,13 @@
         <v>74</v>
       </c>
       <c r="W153" t="s" s="2">
-        <v>208</v>
+        <v>307</v>
       </c>
       <c r="X153" t="s" s="2">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="Y153" t="s" s="2">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="Z153" t="s" s="2">
         <v>74</v>
@@ -19148,7 +19165,7 @@
         <v>74</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>75</v>
@@ -19177,7 +19194,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19200,13 +19217,13 @@
         <v>74</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>102</v>
+        <v>198</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -19233,13 +19250,13 @@
         <v>74</v>
       </c>
       <c r="W154" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>74</v>
@@ -19257,7 +19274,7 @@
         <v>74</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>75</v>
@@ -19286,7 +19303,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19312,10 +19329,10 @@
         <v>102</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -19345,10 +19362,10 @@
         <v>208</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="Z155" t="s" s="2">
         <v>74</v>
@@ -19366,7 +19383,7 @@
         <v>74</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>75</v>
@@ -19395,7 +19412,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19421,10 +19438,10 @@
         <v>102</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
@@ -19454,10 +19471,10 @@
         <v>208</v>
       </c>
       <c r="X156" t="s" s="2">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="Y156" t="s" s="2">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="Z156" t="s" s="2">
         <v>74</v>
@@ -19475,7 +19492,7 @@
         <v>74</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>75</v>
@@ -19504,7 +19521,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -19530,10 +19547,10 @@
         <v>102</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -19563,10 +19580,10 @@
         <v>208</v>
       </c>
       <c r="X157" t="s" s="2">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="Y157" t="s" s="2">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="Z157" t="s" s="2">
         <v>74</v>
@@ -19584,7 +19601,7 @@
         <v>74</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>75</v>
@@ -19613,7 +19630,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -19636,17 +19653,15 @@
         <v>74</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>549</v>
+        <v>102</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="M158" s="2"/>
       <c r="N158" s="2"/>
       <c r="O158" t="s" s="2">
         <v>74</v>
@@ -19671,13 +19686,13 @@
         <v>74</v>
       </c>
       <c r="W158" t="s" s="2">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="X158" t="s" s="2">
-        <v>74</v>
+        <v>545</v>
       </c>
       <c r="Y158" t="s" s="2">
-        <v>74</v>
+        <v>546</v>
       </c>
       <c r="Z158" t="s" s="2">
         <v>74</v>
@@ -19695,7 +19710,7 @@
         <v>74</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>75</v>
@@ -19710,7 +19725,7 @@
         <v>94</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>553</v>
+        <v>74</v>
       </c>
       <c r="AK158" t="s" s="2">
         <v>74</v>
@@ -19724,7 +19739,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -19747,17 +19762,15 @@
         <v>74</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>555</v>
+        <v>102</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>558</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="M159" s="2"/>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
         <v>74</v>
@@ -19782,13 +19795,13 @@
         <v>74</v>
       </c>
       <c r="W159" t="s" s="2">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="X159" t="s" s="2">
-        <v>74</v>
+        <v>550</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>74</v>
+        <v>551</v>
       </c>
       <c r="Z159" t="s" s="2">
         <v>74</v>
@@ -19806,7 +19819,7 @@
         <v>74</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>75</v>
@@ -19835,7 +19848,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -19846,7 +19859,7 @@
         <v>75</v>
       </c>
       <c r="F160" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G160" t="s" s="2">
         <v>74</v>
@@ -19858,16 +19871,16 @@
         <v>74</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>336</v>
+        <v>553</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
@@ -19917,13 +19930,13 @@
         <v>74</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>74</v>
@@ -19932,7 +19945,7 @@
         <v>94</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>74</v>
+        <v>557</v>
       </c>
       <c r="AK160" t="s" s="2">
         <v>74</v>
@@ -19946,7 +19959,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -19969,15 +19982,17 @@
         <v>74</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>84</v>
+        <v>559</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>341</v>
+        <v>560</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M161" s="2"/>
+        <v>561</v>
+      </c>
+      <c r="M161" t="s" s="2">
+        <v>562</v>
+      </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
         <v>74</v>
@@ -20026,7 +20041,7 @@
         <v>74</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>343</v>
+        <v>558</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>75</v>
@@ -20038,7 +20053,7 @@
         <v>74</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>74</v>
@@ -20050,16 +20065,16 @@
         <v>74</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>344</v>
+        <v>74</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
@@ -20078,16 +20093,16 @@
         <v>74</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>127</v>
+        <v>336</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>346</v>
+        <v>564</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>347</v>
+        <v>565</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>159</v>
+        <v>566</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
@@ -20137,7 +20152,7 @@
         <v>74</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>348</v>
+        <v>563</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>75</v>
@@ -20149,7 +20164,7 @@
         <v>74</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>74</v>
@@ -20161,48 +20176,44 @@
         <v>74</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>344</v>
+        <v>74</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
-        <v>350</v>
+        <v>74</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H163" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I163" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M163" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N163" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="M163" s="2"/>
+      <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
         <v>74</v>
       </c>
@@ -20250,19 +20261,19 @@
         <v>74</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>74</v>
@@ -20274,23 +20285,23 @@
         <v>74</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>125</v>
+        <v>344</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>74</v>
@@ -20302,16 +20313,16 @@
         <v>74</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>567</v>
+        <v>346</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>568</v>
+        <v>347</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>569</v>
+        <v>159</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" t="s" s="2">
@@ -20361,19 +20372,19 @@
         <v>74</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>566</v>
+        <v>348</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>74</v>
@@ -20385,46 +20396,48 @@
         <v>74</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>74</v>
+        <v>344</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F165" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G165" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H165" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I165" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>468</v>
+        <v>127</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>571</v>
+        <v>351</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>572</v>
+        <v>352</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N165" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N165" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O165" t="s" s="2">
         <v>74</v>
       </c>
@@ -20472,19 +20485,19 @@
         <v>74</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>570</v>
+        <v>353</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>74</v>
@@ -20496,12 +20509,12 @@
         <v>74</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -20512,7 +20525,7 @@
         <v>75</v>
       </c>
       <c r="F166" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G166" t="s" s="2">
         <v>74</v>
@@ -20524,15 +20537,17 @@
         <v>74</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="M166" s="2"/>
+        <v>572</v>
+      </c>
+      <c r="M166" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="N166" s="2"/>
       <c r="O166" t="s" s="2">
         <v>74</v>
@@ -20581,13 +20596,13 @@
         <v>74</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>74</v>
@@ -20596,15 +20611,235 @@
         <v>94</v>
       </c>
       <c r="AJ166" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK166" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL166" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM166" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="B167" s="2"/>
+      <c r="C167" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D167" s="2"/>
+      <c r="E167" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F167" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G167" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H167" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I167" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J167" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="K167" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L167" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="AK166" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL166" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM166" t="s" s="2">
+      <c r="M167" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="N167" s="2"/>
+      <c r="O167" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P167" s="2"/>
+      <c r="Q167" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R167" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S167" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T167" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U167" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V167" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W167" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X167" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y167" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z167" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA167" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB167" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC167" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD167" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE167" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AF167" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG167" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH167" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI167" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ167" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK167" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL167" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM167" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="B168" s="2"/>
+      <c r="C168" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D168" s="2"/>
+      <c r="E168" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G168" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H168" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I168" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J168" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K168" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="L168" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="M168" s="2"/>
+      <c r="N168" s="2"/>
+      <c r="O168" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P168" s="2"/>
+      <c r="Q168" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R168" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S168" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T168" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U168" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V168" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W168" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X168" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y168" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z168" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA168" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB168" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC168" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD168" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE168" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AF168" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG168" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH168" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI168" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ168" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AK168" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL168" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM168" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-plandefinition-s37.xlsx
+++ b/branches/master/StructureDefinition-plandefinition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-24T14:28:11+00:00</t>
+    <t>2022-05-24T16:07:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1298,10 +1298,10 @@
     <t>plan definition action extention for form configurations</t>
   </si>
   <si>
-    <t>ongoingForm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://science37.github.io/FHIR-FSH-Implementation-Guide/StructureDefinition/ongoing-form}
+    <t>formCollection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://science37.github.io/FHIR-FSH-Implementation-Guide/StructureDefinition/form-collection}
 </t>
   </si>
   <si>

--- a/branches/master/StructureDefinition-plandefinition-s37.xlsx
+++ b/branches/master/StructureDefinition-plandefinition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-24T16:07:29+00:00</t>
+    <t>2022-05-24T18:19:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-plandefinition-s37.xlsx
+++ b/branches/master/StructureDefinition-plandefinition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-24T18:19:26+00:00</t>
+    <t>2022-05-24T18:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-plandefinition-s37.xlsx
+++ b/branches/master/StructureDefinition-plandefinition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-24T18:58:53+00:00</t>
+    <t>2022-05-25T15:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-plandefinition-s37.xlsx
+++ b/branches/master/StructureDefinition-plandefinition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T15:25:26+00:00</t>
+    <t>2022-05-25T17:10:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-plandefinition-s37.xlsx
+++ b/branches/master/StructureDefinition-plandefinition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T17:10:47+00:00</t>
+    <t>2022-05-25T17:52:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-plandefinition-s37.xlsx
+++ b/branches/master/StructureDefinition-plandefinition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T17:52:37+00:00</t>
+    <t>2022-05-25T18:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-plandefinition-s37.xlsx
+++ b/branches/master/StructureDefinition-plandefinition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T18:55:20+00:00</t>
+    <t>2022-05-25T19:52:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-plandefinition-s37.xlsx
+++ b/branches/master/StructureDefinition-plandefinition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T19:52:35+00:00</t>
+    <t>2022-05-25T20:34:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1305,7 +1305,7 @@
 </t>
   </si>
   <si>
-    <t>Ongoing Form</t>
+    <t>Extension : Ongoing Form</t>
   </si>
   <si>
     <t>List of ongoing Forms</t>

--- a/branches/master/StructureDefinition-plandefinition-s37.xlsx
+++ b/branches/master/StructureDefinition-plandefinition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T20:34:56+00:00</t>
+    <t>2022-06-09T20:33:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-plandefinition-s37.xlsx
+++ b/branches/master/StructureDefinition-plandefinition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-09T20:33:24+00:00</t>
+    <t>2022-06-10T16:46:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-plandefinition-s37.xlsx
+++ b/branches/master/StructureDefinition-plandefinition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T16:46:34+00:00</t>
+    <t>2022-06-10T18:20:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-plandefinition-s37.xlsx
+++ b/branches/master/StructureDefinition-plandefinition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T18:20:06+00:00</t>
+    <t>2022-06-10T20:09:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-plandefinition-s37.xlsx
+++ b/branches/master/StructureDefinition-plandefinition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T20:09:36+00:00</t>
+    <t>2022-06-10T20:31:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-plandefinition-s37.xlsx
+++ b/branches/master/StructureDefinition-plandefinition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T20:31:51+00:00</t>
+    <t>2022-06-28T15:12:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-plandefinition-s37.xlsx
+++ b/branches/master/StructureDefinition-plandefinition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T15:12:49+00:00</t>
+    <t>2022-07-04T18:23:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -437,7 +437,7 @@
 </t>
   </si>
   <si>
-    <t>Extension : ResourceCreateUpdateAtDateTime</t>
+    <t>Extension : ActivityDefinition|PlanDefinition|Questionnaire - ResourceCreateUpdateAtDateTime</t>
   </si>
   <si>
     <t>Captures the created at an updated at attributes of date timestamps for a questionnaire</t>
@@ -454,7 +454,7 @@
 </t>
   </si>
   <si>
-    <t>Extension : Parent Reference</t>
+    <t>Extension : ActivityDefinition|PlanDefinition - Parent Reference</t>
   </si>
   <si>
     <t>extension to show reference back to a parent instance</t>
@@ -467,7 +467,7 @@
 </t>
   </si>
   <si>
-    <t>Extension : Protocal Version</t>
+    <t>Extension : PlanDefinition - Protocal Version</t>
   </si>
   <si>
     <t>identifies the specific protocal version</t>
@@ -480,7 +480,7 @@
 </t>
   </si>
   <si>
-    <t>Extension : Version Number</t>
+    <t>Extension : ActivityDefinition|PlanDefinition - Version Number</t>
   </si>
   <si>
     <t>version number</t>
@@ -493,7 +493,7 @@
 </t>
   </si>
   <si>
-    <t>Extension : Day Zero</t>
+    <t>Extension : PlanDefinition - Day Zero</t>
   </si>
   <si>
     <t>collection which diferenciates specific date start of a patients start date.</t>
@@ -1292,7 +1292,7 @@
 </t>
   </si>
   <si>
-    <t>Extension : Form Config</t>
+    <t>Extension : PlanDefinition.action - Form Config</t>
   </si>
   <si>
     <t>plan definition action extention for form configurations</t>
@@ -1305,7 +1305,7 @@
 </t>
   </si>
   <si>
-    <t>Extension : Ongoing Form</t>
+    <t>Extension : PlanDefinition.action - Ongoing Form</t>
   </si>
   <si>
     <t>List of ongoing Forms</t>

--- a/branches/master/StructureDefinition-plandefinition-s37.xlsx
+++ b/branches/master/StructureDefinition-plandefinition-s37.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Profile : PlanDefinitionS37</t>
+    <t>Profile PlanDefinitionS37</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T18:23:06+00:00</t>
+    <t>2022-07-04T18:28:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -467,7 +467,7 @@
 </t>
   </si>
   <si>
-    <t>Extension : PlanDefinition - Protocal Version</t>
+    <t>Profile PlanDefinitionS37 - Extension : Protocal Version</t>
   </si>
   <si>
     <t>identifies the specific protocal version</t>
@@ -493,7 +493,7 @@
 </t>
   </si>
   <si>
-    <t>Extension : PlanDefinition - Day Zero</t>
+    <t>Profile PlanDefinitionS37 - Extension : Day Zero</t>
   </si>
   <si>
     <t>collection which diferenciates specific date start of a patients start date.</t>
@@ -1292,7 +1292,7 @@
 </t>
   </si>
   <si>
-    <t>Extension : PlanDefinition.action - Form Config</t>
+    <t>Profile PlanDefinitionS37.action - Extension : - Form Config</t>
   </si>
   <si>
     <t>plan definition action extention for form configurations</t>
@@ -1305,7 +1305,7 @@
 </t>
   </si>
   <si>
-    <t>Extension : PlanDefinition.action - Ongoing Form</t>
+    <t>Profile PlanDefinitionS37.action : Extension  - Ongoing Form</t>
   </si>
   <si>
     <t>List of ongoing Forms</t>

--- a/branches/master/StructureDefinition-plandefinition-s37.xlsx
+++ b/branches/master/StructureDefinition-plandefinition-s37.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Profile PlanDefinitionS37</t>
+    <t>Profile : PlanDefinitionS37</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T18:28:37+00:00</t>
+    <t>2022-07-04T20:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -467,7 +467,7 @@
 </t>
   </si>
   <si>
-    <t>Profile PlanDefinitionS37 - Extension : Protocal Version</t>
+    <t>Extension : PlanDefinitionS37 - Protocal Version</t>
   </si>
   <si>
     <t>identifies the specific protocal version</t>
@@ -493,7 +493,7 @@
 </t>
   </si>
   <si>
-    <t>Profile PlanDefinitionS37 - Extension : Day Zero</t>
+    <t>Extension : PlanDefinitionS37 - Day Zero</t>
   </si>
   <si>
     <t>collection which diferenciates specific date start of a patients start date.</t>
@@ -1292,7 +1292,7 @@
 </t>
   </si>
   <si>
-    <t>Profile PlanDefinitionS37.action - Extension : - Form Config</t>
+    <t>Extension : PlanDefinitionS37.action - Form Config</t>
   </si>
   <si>
     <t>plan definition action extention for form configurations</t>
@@ -1305,7 +1305,7 @@
 </t>
   </si>
   <si>
-    <t>Profile PlanDefinitionS37.action : Extension  - Ongoing Form</t>
+    <t>Extension : PlanDefinitionS37 - Ongoing Form</t>
   </si>
   <si>
     <t>List of ongoing Forms</t>

--- a/branches/master/StructureDefinition-plandefinition-s37.xlsx
+++ b/branches/master/StructureDefinition-plandefinition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T20:25:49+00:00</t>
+    <t>2022-07-27T15:29:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2271,41 +2271,41 @@
     <col min="1" max="1" width="57.0703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="24.44140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="112.4140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="98.65234375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.65625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="56.19140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="44.328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="39.70703125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="48.0546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="48.05859375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="90.48828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/branches/master/StructureDefinition-plandefinition-s37.xlsx
+++ b/branches/master/StructureDefinition-plandefinition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T15:29:27+00:00</t>
+    <t>2022-07-27T16:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-plandefinition-s37.xlsx
+++ b/branches/master/StructureDefinition-plandefinition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T16:10:03+00:00</t>
+    <t>2022-07-27T16:26:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-plandefinition-s37.xlsx
+++ b/branches/master/StructureDefinition-plandefinition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T16:26:41+00:00</t>
+    <t>2022-08-01T20:41:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
